--- a/scenarios_and_results/Scenario_low_discount_bio_2000_A.xlsx
+++ b/scenarios_and_results/Scenario_low_discount_bio_2000_A.xlsx
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0006593640345202112</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0006593640345202112</v>
       </c>
       <c r="M7">
         <v>0.0031545242304746</v>
@@ -1585,7 +1585,7 @@
         <v>0.09534720660945205</v>
       </c>
       <c r="P7">
-        <v>33.08460040571218</v>
+        <v>40.00000000646825</v>
       </c>
       <c r="Q7">
         <v>0.7789987162790453</v>
@@ -1606,7 +1606,7 @@
         <v>40</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>6.91539960075607</v>
       </c>
       <c r="X7">
         <v>0</v>
